--- a/data/regression_name_list624.xlsx
+++ b/data/regression_name_list624.xlsx
@@ -1294,7 +1294,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1459,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1514,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1624,7 +1624,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1844,7 +1844,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1899,7 +1899,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2009,7 +2009,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2064,7 +2064,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2119,7 +2119,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2174,7 +2174,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2339,7 +2339,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2394,7 +2394,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2449,7 +2449,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2504,7 +2504,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4642,7 +4642,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4752,7 +4752,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4807,7 +4807,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4862,7 +4862,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4972,7 +4972,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5027,7 +5027,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5082,7 +5082,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5137,7 +5137,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5192,7 +5192,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5247,7 +5247,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
